--- a/чистый бланк/Бланк КИ  клиент ООО КСК ТРЕЙД на отгрузку с 03.02.2025.xlsx
+++ b/чистый бланк/Бланк КИ  клиент ООО КСК ТРЕЙД на отгрузку с 03.02.2025.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\перенос данных\ПОКОМ КИ\pokom_ki\чистый бланк\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C778951-157B-45B3-9B4C-02B947025C15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CF170D-9DD3-47C0-A02D-404997E569D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Setting" sheetId="3" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">'Бланк заказа'!$A$18:$AF$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Бланк заказа'!$A$18:$AF$684</definedName>
     <definedName name="CodeProxySet">Setting!$E$9:$E$10</definedName>
     <definedName name="Comment">'Бланк заказа'!$H$5</definedName>
     <definedName name="ContactInformation">'Бланк заказа'!$A$12</definedName>
@@ -66775,7 +66775,7 @@
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="9B+NZry37bkZSF9lTxjn87/r4rRoxhDh4+IGVl4OhUlPEl2SRRe0slhoU8hQN7jzKaHbsFUfdU0+Jnf0OrKPuA==" saltValue="/TxrKkU8ODYG9GaXIUS2mw==" spinCount="100000" sheet="1" objects="1" scenarios="1" sort="0" autoFilter="0" pivotTables="0"/>
-  <autoFilter ref="A18:AF18" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A18:AF684" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="3" showButton="0"/>
     <filterColumn colId="15" showButton="0"/>
     <filterColumn colId="16" showButton="0"/>
@@ -68338,12 +68338,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Документ" ma:contentTypeID="0x010100BE9B55E4B75ADC4EA022BCFE912025B5" ma:contentTypeVersion="2" ma:contentTypeDescription="Создание документа." ma:contentTypeScope="" ma:versionID="2ac6f31670a5913a5008fc49ead251a3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="bb0b2827-4eb3-461f-8866-28597c48f473" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f54d7d8b2039ed4c9796edaba581cae7" ns2:_="">
     <xsd:import namespace="bb0b2827-4eb3-461f-8866-28597c48f473"/>
@@ -68491,7 +68485,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -68500,23 +68494,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624C7E1B-E076-4729-8478-31CDA599C536}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="bb0b2827-4eb3-461f-8866-28597c48f473"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE5A0B88-DB71-4916-80FA-147DE2C72DAC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -68534,10 +68518,26 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{36407DDB-7AD7-47BE-9510-621E920C3D44}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{624C7E1B-E076-4729-8478-31CDA599C536}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="bb0b2827-4eb3-461f-8866-28597c48f473"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>